--- a/MyScrumBudget_0.1.2.xlsx
+++ b/MyScrumBudget_0.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\myscrumbudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48315F1-6FD7-4B60-BC56-F6763BA7A848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4828A98-AA03-45F7-A048-CA13F531D8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{7EFC9F54-FD64-4CB3-8707-A4DEAF994445}"/>
   </bookViews>
@@ -1814,7 +1814,7 @@
     <t>0.1.2</t>
   </si>
   <si>
-    <t>Fix divide by zero error when entering the 1st month</t>
+    <t>Fix divide by zero error when entering the 1st month and fix the weekly burn-rate calculation</t>
   </si>
 </sst>
 </file>
@@ -2883,8 +2883,8 @@
         <v>543</v>
       </c>
       <c r="L3" s="37">
-        <f>L2/ROUND(DATEDIF(F2,TEXT(EDATE(F2,MAX(SUM(E209:AO209)-1,1)),"MM/DD/YYYY"),"d")/7,0)</f>
-        <v>12532.747252747253</v>
+        <f>L2/ROUND(DATEDIF(F2,TEXT(EDATE(F2,MAX(SUM(E209:AO209),1)),"MM/DD/YYYY"),"d")/7,0)</f>
+        <v>11880</v>
       </c>
       <c r="M3" s="38"/>
       <c r="N3" s="34"/>
@@ -24011,7 +24011,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
